--- a/rawdata.xlsx
+++ b/rawdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miguel/Desktop/zurcher/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A448751A-78E3-BC45-A7AB-DDBC22D229E4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D7CF68-52CA-3B40-BB4D-17A2B8C4A9F2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{B94DE190-D00B-3E47-942D-981576E61B36}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28040" windowHeight="17040" activeTab="9" xr2:uid="{B94DE190-D00B-3E47-942D-981576E61B36}"/>
   </bookViews>
   <sheets>
     <sheet name="D309 (not used in paper)" sheetId="1" r:id="rId1"/>
@@ -22,8 +22,12 @@
     <sheet name="A452374" sheetId="3" r:id="rId7"/>
     <sheet name="A530872" sheetId="7" r:id="rId8"/>
     <sheet name="A452372" sheetId="6" r:id="rId9"/>
+    <sheet name="replacements" sheetId="11" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">replacements!$A$1:$N$167</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="14">
   <si>
     <t>bus number</t>
   </si>
@@ -68,10 +72,19 @@
     <t>odo at 1 replacement</t>
   </si>
   <si>
-    <t>moth odo begins</t>
+    <t>year odo begins</t>
   </si>
   <si>
-    <t>year odo begins</t>
+    <t>any rep</t>
+  </si>
+  <si>
+    <t>month odo begins</t>
+  </si>
+  <si>
+    <t>1 rep</t>
+  </si>
+  <si>
+    <t>2 rep</t>
   </si>
 </sst>
 </file>
@@ -433,7 +446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89575478-B3DD-DF42-90F9-64DEDDECC4CA}">
   <dimension ref="A1:E139"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -595,7 +608,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>5</v>
@@ -612,7 +625,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>77</v>
@@ -2456,6 +2469,7873 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A7B520D-96D3-274B-88EC-DC197FB3A0A5}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:N167"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1334</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>77</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>5</v>
+      </c>
+      <c r="K2">
+        <v>77</v>
+      </c>
+      <c r="L2" t="b">
+        <f>D2&gt;0</f>
+        <v>0</v>
+      </c>
+      <c r="M2" t="b">
+        <f>G2&gt;0</f>
+        <v>0</v>
+      </c>
+      <c r="N2" t="b">
+        <f>OR(L2,M2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1335</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>77</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>5</v>
+      </c>
+      <c r="K3">
+        <v>77</v>
+      </c>
+      <c r="L3" t="b">
+        <f t="shared" ref="L3:L66" si="0">D3&gt;0</f>
+        <v>0</v>
+      </c>
+      <c r="M3" t="b">
+        <f t="shared" ref="M3:M66" si="1">G3&gt;0</f>
+        <v>0</v>
+      </c>
+      <c r="N3" t="b">
+        <f t="shared" ref="N3:N66" si="2">OR(L3,M3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1336</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>77</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>5</v>
+      </c>
+      <c r="K4">
+        <v>77</v>
+      </c>
+      <c r="L4" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M4" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N4" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1337</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>77</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <v>77</v>
+      </c>
+      <c r="L5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M5" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N5" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4403</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>83</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <v>83</v>
+      </c>
+      <c r="L6" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M6" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N6" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>4404</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>83</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="K7">
+        <v>83</v>
+      </c>
+      <c r="L7" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M7" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N7" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>4405</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>83</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+      <c r="K8">
+        <v>83</v>
+      </c>
+      <c r="L8" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M8" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N8" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>4406</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>83</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>5</v>
+      </c>
+      <c r="K9">
+        <v>83</v>
+      </c>
+      <c r="L9" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M9" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N9" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>4407</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>83</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>5</v>
+      </c>
+      <c r="K10">
+        <v>83</v>
+      </c>
+      <c r="L10" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M10" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N10" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>4408</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>83</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>5</v>
+      </c>
+      <c r="K11">
+        <v>83</v>
+      </c>
+      <c r="L11" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M11" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N11" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>4409</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>83</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>5</v>
+      </c>
+      <c r="K12">
+        <v>83</v>
+      </c>
+      <c r="L12" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M12" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N12" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>4410</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>83</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>5</v>
+      </c>
+      <c r="K13">
+        <v>83</v>
+      </c>
+      <c r="L13" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M13" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N13" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>4411</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>83</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>5</v>
+      </c>
+      <c r="K14">
+        <v>83</v>
+      </c>
+      <c r="L14" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M14" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N14" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>4412</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>83</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>5</v>
+      </c>
+      <c r="K15">
+        <v>83</v>
+      </c>
+      <c r="L15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M15" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N15" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>4413</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>83</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>5</v>
+      </c>
+      <c r="K16">
+        <v>83</v>
+      </c>
+      <c r="L16" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M16" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N16" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>4414</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>83</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>5</v>
+      </c>
+      <c r="K17">
+        <v>83</v>
+      </c>
+      <c r="L17" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M17" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N17" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>4415</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>83</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>5</v>
+      </c>
+      <c r="K18">
+        <v>83</v>
+      </c>
+      <c r="L18" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M18" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N18" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>4416</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>83</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>5</v>
+      </c>
+      <c r="K19">
+        <v>83</v>
+      </c>
+      <c r="L19" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M19" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N19" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>4417</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>83</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>5</v>
+      </c>
+      <c r="K20">
+        <v>83</v>
+      </c>
+      <c r="L20" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M20" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N20" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2386</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>81</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>7</v>
+      </c>
+      <c r="K21">
+        <v>81</v>
+      </c>
+      <c r="L21" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M21" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N21" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2387</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>81</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>7</v>
+      </c>
+      <c r="K22">
+        <v>81</v>
+      </c>
+      <c r="L22" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M22" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N22" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2388</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>81</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>7</v>
+      </c>
+      <c r="K23">
+        <v>81</v>
+      </c>
+      <c r="L23" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M23" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N23" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2389</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>81</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>7</v>
+      </c>
+      <c r="K24">
+        <v>81</v>
+      </c>
+      <c r="L24" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M24" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N24" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>4338</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>79</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>84</v>
+      </c>
+      <c r="F25">
+        <v>220900</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>8</v>
+      </c>
+      <c r="K25">
+        <v>79</v>
+      </c>
+      <c r="L25" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M25" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N25" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>4339</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>79</v>
+      </c>
+      <c r="D26">
+        <v>8</v>
+      </c>
+      <c r="E26">
+        <v>83</v>
+      </c>
+      <c r="F26">
+        <v>186600</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>8</v>
+      </c>
+      <c r="K26">
+        <v>79</v>
+      </c>
+      <c r="L26" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M26" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N26" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>4340</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>79</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>8</v>
+      </c>
+      <c r="K27">
+        <v>79</v>
+      </c>
+      <c r="L27" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M27" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N27" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>4341</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>79</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>8</v>
+      </c>
+      <c r="K28">
+        <v>79</v>
+      </c>
+      <c r="L28" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M28" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N28" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>4342</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>79</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <v>84</v>
+      </c>
+      <c r="F29">
+        <v>209900</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>8</v>
+      </c>
+      <c r="K29">
+        <v>79</v>
+      </c>
+      <c r="L29" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M29" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N29" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>4343</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>79</v>
+      </c>
+      <c r="D30">
+        <v>11</v>
+      </c>
+      <c r="E30">
+        <v>84</v>
+      </c>
+      <c r="F30">
+        <v>198800</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>8</v>
+      </c>
+      <c r="K30">
+        <v>79</v>
+      </c>
+      <c r="L30" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M30" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N30" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>4344</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>79</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>8</v>
+      </c>
+      <c r="K31">
+        <v>79</v>
+      </c>
+      <c r="L31" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M31" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N31" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>4345</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <v>79</v>
+      </c>
+      <c r="D32">
+        <v>6</v>
+      </c>
+      <c r="E32">
+        <v>83</v>
+      </c>
+      <c r="F32">
+        <v>187700</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>8</v>
+      </c>
+      <c r="K32">
+        <v>79</v>
+      </c>
+      <c r="L32" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M32" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N32" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>4346</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33">
+        <v>79</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>8</v>
+      </c>
+      <c r="K33">
+        <v>79</v>
+      </c>
+      <c r="L33" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M33" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N33" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>4347</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34">
+        <v>79</v>
+      </c>
+      <c r="D34">
+        <v>12</v>
+      </c>
+      <c r="E34">
+        <v>82</v>
+      </c>
+      <c r="F34">
+        <v>162500</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>8</v>
+      </c>
+      <c r="K34">
+        <v>79</v>
+      </c>
+      <c r="L34" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M34" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N34" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>4348</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="C35">
+        <v>79</v>
+      </c>
+      <c r="D35">
+        <v>5</v>
+      </c>
+      <c r="E35">
+        <v>83</v>
+      </c>
+      <c r="F35">
+        <v>187800</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>8</v>
+      </c>
+      <c r="K35">
+        <v>79</v>
+      </c>
+      <c r="L35" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M35" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N35" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>4349</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36">
+        <v>79</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>8</v>
+      </c>
+      <c r="K36">
+        <v>79</v>
+      </c>
+      <c r="L36" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M36" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N36" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>4350</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37">
+        <v>79</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>8</v>
+      </c>
+      <c r="K37">
+        <v>79</v>
+      </c>
+      <c r="L37" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M37" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N37" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>4351</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38">
+        <v>79</v>
+      </c>
+      <c r="D38">
+        <v>4</v>
+      </c>
+      <c r="E38">
+        <v>82</v>
+      </c>
+      <c r="F38">
+        <v>124800</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>8</v>
+      </c>
+      <c r="K38">
+        <v>79</v>
+      </c>
+      <c r="L38" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M38" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N38" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>4352</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39">
+        <v>79</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>8</v>
+      </c>
+      <c r="K39">
+        <v>79</v>
+      </c>
+      <c r="L39" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M39" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N39" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>4353</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40">
+        <v>79</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>8</v>
+      </c>
+      <c r="K40">
+        <v>79</v>
+      </c>
+      <c r="L40" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M40" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N40" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>4354</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41">
+        <v>79</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>8</v>
+      </c>
+      <c r="K41">
+        <v>79</v>
+      </c>
+      <c r="L41" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M41" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N41" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>4355</v>
+      </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42">
+        <v>79</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>8</v>
+      </c>
+      <c r="K42">
+        <v>79</v>
+      </c>
+      <c r="L42" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M42" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N42" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>4356</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43">
+        <v>79</v>
+      </c>
+      <c r="D43">
+        <v>12</v>
+      </c>
+      <c r="E43">
+        <v>84</v>
+      </c>
+      <c r="F43">
+        <v>250700</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>8</v>
+      </c>
+      <c r="K43">
+        <v>79</v>
+      </c>
+      <c r="L43" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M43" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N43" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>4357</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44">
+        <v>79</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>8</v>
+      </c>
+      <c r="K44">
+        <v>79</v>
+      </c>
+      <c r="L44" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M44" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N44" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>4358</v>
+      </c>
+      <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="C45">
+        <v>79</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>8</v>
+      </c>
+      <c r="K45">
+        <v>79</v>
+      </c>
+      <c r="L45" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M45" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N45" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>4359</v>
+      </c>
+      <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="C46">
+        <v>79</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>84</v>
+      </c>
+      <c r="F46">
+        <v>187700</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>8</v>
+      </c>
+      <c r="K46">
+        <v>79</v>
+      </c>
+      <c r="L46" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M46" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N46" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>4360</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47">
+        <v>79</v>
+      </c>
+      <c r="D47">
+        <v>3</v>
+      </c>
+      <c r="E47">
+        <v>85</v>
+      </c>
+      <c r="F47">
+        <v>243400</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>8</v>
+      </c>
+      <c r="K47">
+        <v>79</v>
+      </c>
+      <c r="L47" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M47" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N47" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>4361</v>
+      </c>
+      <c r="B48">
+        <v>3</v>
+      </c>
+      <c r="C48">
+        <v>79</v>
+      </c>
+      <c r="D48">
+        <v>6</v>
+      </c>
+      <c r="E48">
+        <v>84</v>
+      </c>
+      <c r="F48">
+        <v>208100</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>8</v>
+      </c>
+      <c r="K48">
+        <v>79</v>
+      </c>
+      <c r="L48" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M48" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N48" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>4362</v>
+      </c>
+      <c r="B49">
+        <v>3</v>
+      </c>
+      <c r="C49">
+        <v>79</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <v>83</v>
+      </c>
+      <c r="F49">
+        <v>146500</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>8</v>
+      </c>
+      <c r="K49">
+        <v>79</v>
+      </c>
+      <c r="L49" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M49" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N49" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>4363</v>
+      </c>
+      <c r="B50">
+        <v>3</v>
+      </c>
+      <c r="C50">
+        <v>79</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>8</v>
+      </c>
+      <c r="K50">
+        <v>79</v>
+      </c>
+      <c r="L50" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M50" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N50" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>4364</v>
+      </c>
+      <c r="B51">
+        <v>3</v>
+      </c>
+      <c r="C51">
+        <v>79</v>
+      </c>
+      <c r="D51">
+        <v>11</v>
+      </c>
+      <c r="E51">
+        <v>84</v>
+      </c>
+      <c r="F51">
+        <v>215900</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>8</v>
+      </c>
+      <c r="K51">
+        <v>79</v>
+      </c>
+      <c r="L51" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M51" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N51" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>4365</v>
+      </c>
+      <c r="B52">
+        <v>3</v>
+      </c>
+      <c r="C52">
+        <v>79</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>84</v>
+      </c>
+      <c r="F52">
+        <v>204800</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>8</v>
+      </c>
+      <c r="K52">
+        <v>79</v>
+      </c>
+      <c r="L52" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M52" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N52" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>4366</v>
+      </c>
+      <c r="B53">
+        <v>3</v>
+      </c>
+      <c r="C53">
+        <v>79</v>
+      </c>
+      <c r="D53">
+        <v>10</v>
+      </c>
+      <c r="E53">
+        <v>82</v>
+      </c>
+      <c r="F53">
+        <v>156600</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>8</v>
+      </c>
+      <c r="K53">
+        <v>79</v>
+      </c>
+      <c r="L53" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M53" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N53" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>4367</v>
+      </c>
+      <c r="B54">
+        <v>3</v>
+      </c>
+      <c r="C54">
+        <v>79</v>
+      </c>
+      <c r="D54">
+        <v>10</v>
+      </c>
+      <c r="E54">
+        <v>84</v>
+      </c>
+      <c r="F54">
+        <v>235200</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>8</v>
+      </c>
+      <c r="K54">
+        <v>79</v>
+      </c>
+      <c r="L54" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M54" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N54" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>4368</v>
+      </c>
+      <c r="B55">
+        <v>3</v>
+      </c>
+      <c r="C55">
+        <v>79</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>8</v>
+      </c>
+      <c r="K55">
+        <v>79</v>
+      </c>
+      <c r="L55" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M55" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N55" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>4369</v>
+      </c>
+      <c r="B56">
+        <v>3</v>
+      </c>
+      <c r="C56">
+        <v>79</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>8</v>
+      </c>
+      <c r="K56">
+        <v>79</v>
+      </c>
+      <c r="L56" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M56" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N56" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>4370</v>
+      </c>
+      <c r="B57">
+        <v>3</v>
+      </c>
+      <c r="C57">
+        <v>79</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>8</v>
+      </c>
+      <c r="K57">
+        <v>79</v>
+      </c>
+      <c r="L57" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M57" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N57" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>4371</v>
+      </c>
+      <c r="B58">
+        <v>3</v>
+      </c>
+      <c r="C58">
+        <v>79</v>
+      </c>
+      <c r="D58">
+        <v>10</v>
+      </c>
+      <c r="E58">
+        <v>84</v>
+      </c>
+      <c r="F58">
+        <v>232100</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>8</v>
+      </c>
+      <c r="K58">
+        <v>79</v>
+      </c>
+      <c r="L58" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M58" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N58" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>4372</v>
+      </c>
+      <c r="B59">
+        <v>3</v>
+      </c>
+      <c r="C59">
+        <v>79</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>85</v>
+      </c>
+      <c r="F59">
+        <v>232700</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>8</v>
+      </c>
+      <c r="K59">
+        <v>79</v>
+      </c>
+      <c r="L59" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M59" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N59" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>4373</v>
+      </c>
+      <c r="B60">
+        <v>3</v>
+      </c>
+      <c r="C60">
+        <v>79</v>
+      </c>
+      <c r="D60">
+        <v>9</v>
+      </c>
+      <c r="E60">
+        <v>84</v>
+      </c>
+      <c r="F60">
+        <v>229200</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>8</v>
+      </c>
+      <c r="K60">
+        <v>79</v>
+      </c>
+      <c r="L60" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M60" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N60" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>4374</v>
+      </c>
+      <c r="B61">
+        <v>3</v>
+      </c>
+      <c r="C61">
+        <v>79</v>
+      </c>
+      <c r="D61">
+        <v>4</v>
+      </c>
+      <c r="E61">
+        <v>83</v>
+      </c>
+      <c r="F61">
+        <v>159200</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>8</v>
+      </c>
+      <c r="K61">
+        <v>79</v>
+      </c>
+      <c r="L61" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M61" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N61" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>4375</v>
+      </c>
+      <c r="B62">
+        <v>3</v>
+      </c>
+      <c r="C62">
+        <v>79</v>
+      </c>
+      <c r="D62">
+        <v>8</v>
+      </c>
+      <c r="E62">
+        <v>84</v>
+      </c>
+      <c r="F62">
+        <v>236500</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>8</v>
+      </c>
+      <c r="K62">
+        <v>79</v>
+      </c>
+      <c r="L62" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M62" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N62" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>4376</v>
+      </c>
+      <c r="B63">
+        <v>3</v>
+      </c>
+      <c r="C63">
+        <v>79</v>
+      </c>
+      <c r="D63">
+        <v>10</v>
+      </c>
+      <c r="E63">
+        <v>82</v>
+      </c>
+      <c r="F63">
+        <v>141900</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>8</v>
+      </c>
+      <c r="K63">
+        <v>79</v>
+      </c>
+      <c r="L63" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M63" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N63" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>4377</v>
+      </c>
+      <c r="B64">
+        <v>3</v>
+      </c>
+      <c r="C64">
+        <v>79</v>
+      </c>
+      <c r="D64">
+        <v>7</v>
+      </c>
+      <c r="E64">
+        <v>82</v>
+      </c>
+      <c r="F64">
+        <v>149900</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>8</v>
+      </c>
+      <c r="K64">
+        <v>79</v>
+      </c>
+      <c r="L64" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M64" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N64" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>4378</v>
+      </c>
+      <c r="B65">
+        <v>3</v>
+      </c>
+      <c r="C65">
+        <v>79</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>8</v>
+      </c>
+      <c r="K65">
+        <v>79</v>
+      </c>
+      <c r="L65" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M65" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N65" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>4379</v>
+      </c>
+      <c r="B66">
+        <v>3</v>
+      </c>
+      <c r="C66">
+        <v>79</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>8</v>
+      </c>
+      <c r="K66">
+        <v>79</v>
+      </c>
+      <c r="L66" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M66" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N66" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>4380</v>
+      </c>
+      <c r="B67">
+        <v>3</v>
+      </c>
+      <c r="C67">
+        <v>79</v>
+      </c>
+      <c r="D67">
+        <v>11</v>
+      </c>
+      <c r="E67">
+        <v>83</v>
+      </c>
+      <c r="F67">
+        <v>194900</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>8</v>
+      </c>
+      <c r="K67">
+        <v>79</v>
+      </c>
+      <c r="L67" t="b">
+        <f t="shared" ref="L67:L130" si="3">D67&gt;0</f>
+        <v>1</v>
+      </c>
+      <c r="M67" t="b">
+        <f t="shared" ref="M67:M130" si="4">G67&gt;0</f>
+        <v>0</v>
+      </c>
+      <c r="N67" t="b">
+        <f t="shared" ref="N67:N130" si="5">OR(L67,M67)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>4381</v>
+      </c>
+      <c r="B68">
+        <v>3</v>
+      </c>
+      <c r="C68">
+        <v>79</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>8</v>
+      </c>
+      <c r="K68">
+        <v>79</v>
+      </c>
+      <c r="L68" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M68" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N68" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>4382</v>
+      </c>
+      <c r="B69">
+        <v>3</v>
+      </c>
+      <c r="C69">
+        <v>79</v>
+      </c>
+      <c r="D69">
+        <v>4</v>
+      </c>
+      <c r="E69">
+        <v>85</v>
+      </c>
+      <c r="F69">
+        <v>273400</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>8</v>
+      </c>
+      <c r="K69">
+        <v>79</v>
+      </c>
+      <c r="L69" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M69" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N69" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>4383</v>
+      </c>
+      <c r="B70">
+        <v>3</v>
+      </c>
+      <c r="C70">
+        <v>79</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>8</v>
+      </c>
+      <c r="K70">
+        <v>79</v>
+      </c>
+      <c r="L70" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M70" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N70" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>4384</v>
+      </c>
+      <c r="B71">
+        <v>3</v>
+      </c>
+      <c r="C71">
+        <v>79</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>8</v>
+      </c>
+      <c r="K71">
+        <v>79</v>
+      </c>
+      <c r="L71" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M71" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N71" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>4385</v>
+      </c>
+      <c r="B72">
+        <v>3</v>
+      </c>
+      <c r="C72">
+        <v>79</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>85</v>
+      </c>
+      <c r="F72">
+        <v>215100</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>8</v>
+      </c>
+      <c r="K72">
+        <v>79</v>
+      </c>
+      <c r="L72" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M72" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N72" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>5297</v>
+      </c>
+      <c r="B73">
+        <v>8</v>
+      </c>
+      <c r="C73">
+        <v>75</v>
+      </c>
+      <c r="D73">
+        <v>4</v>
+      </c>
+      <c r="E73">
+        <v>79</v>
+      </c>
+      <c r="F73">
+        <v>153400</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>9</v>
+      </c>
+      <c r="K73">
+        <v>75</v>
+      </c>
+      <c r="L73" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M73" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N73" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>5298</v>
+      </c>
+      <c r="B74">
+        <v>8</v>
+      </c>
+      <c r="C74">
+        <v>75</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>9</v>
+      </c>
+      <c r="K74">
+        <v>75</v>
+      </c>
+      <c r="L74" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M74" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N74" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>5299</v>
+      </c>
+      <c r="B75">
+        <v>8</v>
+      </c>
+      <c r="C75">
+        <v>75</v>
+      </c>
+      <c r="D75">
+        <v>9</v>
+      </c>
+      <c r="E75">
+        <v>79</v>
+      </c>
+      <c r="F75">
+        <v>209100</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>9</v>
+      </c>
+      <c r="K75">
+        <v>75</v>
+      </c>
+      <c r="L75" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M75" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N75" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>5300</v>
+      </c>
+      <c r="B76">
+        <v>8</v>
+      </c>
+      <c r="C76">
+        <v>75</v>
+      </c>
+      <c r="D76">
+        <v>9</v>
+      </c>
+      <c r="E76">
+        <v>80</v>
+      </c>
+      <c r="F76">
+        <v>215000</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>9</v>
+      </c>
+      <c r="K76">
+        <v>75</v>
+      </c>
+      <c r="L76" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M76" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N76" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>5301</v>
+      </c>
+      <c r="B77">
+        <v>8</v>
+      </c>
+      <c r="C77">
+        <v>75</v>
+      </c>
+      <c r="D77">
+        <v>12</v>
+      </c>
+      <c r="E77">
+        <v>78</v>
+      </c>
+      <c r="F77">
+        <v>168600</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>9</v>
+      </c>
+      <c r="K77">
+        <v>75</v>
+      </c>
+      <c r="L77" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M77" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N77" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>5302</v>
+      </c>
+      <c r="B78">
+        <v>8</v>
+      </c>
+      <c r="C78">
+        <v>75</v>
+      </c>
+      <c r="D78">
+        <v>2</v>
+      </c>
+      <c r="E78">
+        <v>78</v>
+      </c>
+      <c r="F78">
+        <v>128800</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>9</v>
+      </c>
+      <c r="K78">
+        <v>75</v>
+      </c>
+      <c r="L78" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M78" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N78" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>5303</v>
+      </c>
+      <c r="B79">
+        <v>8</v>
+      </c>
+      <c r="C79">
+        <v>75</v>
+      </c>
+      <c r="D79">
+        <v>12</v>
+      </c>
+      <c r="E79">
+        <v>81</v>
+      </c>
+      <c r="F79">
+        <v>285900</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>9</v>
+      </c>
+      <c r="K79">
+        <v>75</v>
+      </c>
+      <c r="L79" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M79" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N79" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>5304</v>
+      </c>
+      <c r="B80">
+        <v>8</v>
+      </c>
+      <c r="C80">
+        <v>75</v>
+      </c>
+      <c r="D80">
+        <v>2</v>
+      </c>
+      <c r="E80">
+        <v>82</v>
+      </c>
+      <c r="F80">
+        <v>290000</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>9</v>
+      </c>
+      <c r="K80">
+        <v>75</v>
+      </c>
+      <c r="L80" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M80" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N80" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>5305</v>
+      </c>
+      <c r="B81">
+        <v>7</v>
+      </c>
+      <c r="C81">
+        <v>75</v>
+      </c>
+      <c r="D81">
+        <v>6</v>
+      </c>
+      <c r="E81">
+        <v>83</v>
+      </c>
+      <c r="F81">
+        <v>387300</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>9</v>
+      </c>
+      <c r="K81">
+        <v>75</v>
+      </c>
+      <c r="L81" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M81" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N81" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>5306</v>
+      </c>
+      <c r="B82">
+        <v>8</v>
+      </c>
+      <c r="C82">
+        <v>75</v>
+      </c>
+      <c r="D82">
+        <v>7</v>
+      </c>
+      <c r="E82">
+        <v>79</v>
+      </c>
+      <c r="F82">
+        <v>235400</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>9</v>
+      </c>
+      <c r="K82">
+        <v>75</v>
+      </c>
+      <c r="L82" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M82" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N82" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>5307</v>
+      </c>
+      <c r="B83">
+        <v>8</v>
+      </c>
+      <c r="C83">
+        <v>75</v>
+      </c>
+      <c r="D83">
+        <v>4</v>
+      </c>
+      <c r="E83">
+        <v>81</v>
+      </c>
+      <c r="F83">
+        <v>251200</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>9</v>
+      </c>
+      <c r="K83">
+        <v>75</v>
+      </c>
+      <c r="L83" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M83" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N83" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>5308</v>
+      </c>
+      <c r="B84">
+        <v>7</v>
+      </c>
+      <c r="C84">
+        <v>75</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84">
+        <v>80</v>
+      </c>
+      <c r="F84">
+        <v>226100</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>9</v>
+      </c>
+      <c r="K84">
+        <v>75</v>
+      </c>
+      <c r="L84" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M84" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N84" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>5309</v>
+      </c>
+      <c r="B85">
+        <v>8</v>
+      </c>
+      <c r="C85">
+        <v>75</v>
+      </c>
+      <c r="D85">
+        <v>9</v>
+      </c>
+      <c r="E85">
+        <v>82</v>
+      </c>
+      <c r="F85">
+        <v>300100</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>9</v>
+      </c>
+      <c r="K85">
+        <v>75</v>
+      </c>
+      <c r="L85" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M85" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N85" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>5310</v>
+      </c>
+      <c r="B86">
+        <v>8</v>
+      </c>
+      <c r="C86">
+        <v>75</v>
+      </c>
+      <c r="D86">
+        <v>12</v>
+      </c>
+      <c r="E86">
+        <v>80</v>
+      </c>
+      <c r="F86">
+        <v>246600</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>9</v>
+      </c>
+      <c r="K86">
+        <v>75</v>
+      </c>
+      <c r="L86" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M86" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N86" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>5311</v>
+      </c>
+      <c r="B87">
+        <v>8</v>
+      </c>
+      <c r="C87">
+        <v>75</v>
+      </c>
+      <c r="D87">
+        <v>7</v>
+      </c>
+      <c r="E87">
+        <v>81</v>
+      </c>
+      <c r="F87">
+        <v>272500</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>9</v>
+      </c>
+      <c r="K87">
+        <v>75</v>
+      </c>
+      <c r="L87" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M87" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N87" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>5312</v>
+      </c>
+      <c r="B88">
+        <v>8</v>
+      </c>
+      <c r="C88">
+        <v>75</v>
+      </c>
+      <c r="D88">
+        <v>8</v>
+      </c>
+      <c r="E88">
+        <v>84</v>
+      </c>
+      <c r="F88">
+        <v>328600</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>9</v>
+      </c>
+      <c r="K88">
+        <v>75</v>
+      </c>
+      <c r="L88" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M88" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N88" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>5313</v>
+      </c>
+      <c r="B89">
+        <v>8</v>
+      </c>
+      <c r="C89">
+        <v>75</v>
+      </c>
+      <c r="D89">
+        <v>6</v>
+      </c>
+      <c r="E89">
+        <v>81</v>
+      </c>
+      <c r="F89">
+        <v>260000</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>9</v>
+      </c>
+      <c r="K89">
+        <v>75</v>
+      </c>
+      <c r="L89" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M89" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N89" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>5314</v>
+      </c>
+      <c r="B90">
+        <v>8</v>
+      </c>
+      <c r="C90">
+        <v>75</v>
+      </c>
+      <c r="D90">
+        <v>3</v>
+      </c>
+      <c r="E90">
+        <v>85</v>
+      </c>
+      <c r="F90">
+        <v>358600</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>9</v>
+      </c>
+      <c r="K90">
+        <v>75</v>
+      </c>
+      <c r="L90" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M90" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N90" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>5315</v>
+      </c>
+      <c r="B91">
+        <v>8</v>
+      </c>
+      <c r="C91">
+        <v>75</v>
+      </c>
+      <c r="D91">
+        <v>12</v>
+      </c>
+      <c r="E91">
+        <v>80</v>
+      </c>
+      <c r="F91">
+        <v>274700</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>9</v>
+      </c>
+      <c r="K91">
+        <v>75</v>
+      </c>
+      <c r="L91" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M91" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N91" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>5316</v>
+      </c>
+      <c r="B92">
+        <v>8</v>
+      </c>
+      <c r="C92">
+        <v>75</v>
+      </c>
+      <c r="D92">
+        <v>11</v>
+      </c>
+      <c r="E92">
+        <v>77</v>
+      </c>
+      <c r="F92">
+        <v>121300</v>
+      </c>
+      <c r="G92">
+        <v>5</v>
+      </c>
+      <c r="H92">
+        <v>82</v>
+      </c>
+      <c r="I92">
+        <v>293400</v>
+      </c>
+      <c r="J92">
+        <v>9</v>
+      </c>
+      <c r="K92">
+        <v>75</v>
+      </c>
+      <c r="L92" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M92" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N92" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>5317</v>
+      </c>
+      <c r="B93">
+        <v>8</v>
+      </c>
+      <c r="C93">
+        <v>75</v>
+      </c>
+      <c r="D93">
+        <v>12</v>
+      </c>
+      <c r="E93">
+        <v>81</v>
+      </c>
+      <c r="F93">
+        <v>292400</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>9</v>
+      </c>
+      <c r="K93">
+        <v>75</v>
+      </c>
+      <c r="L93" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M93" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N93" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>5318</v>
+      </c>
+      <c r="B94">
+        <v>8</v>
+      </c>
+      <c r="C94">
+        <v>75</v>
+      </c>
+      <c r="D94">
+        <v>7</v>
+      </c>
+      <c r="E94">
+        <v>84</v>
+      </c>
+      <c r="F94">
+        <v>363200</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>9</v>
+      </c>
+      <c r="K94">
+        <v>75</v>
+      </c>
+      <c r="L94" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M94" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N94" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>5319</v>
+      </c>
+      <c r="B95">
+        <v>8</v>
+      </c>
+      <c r="C95">
+        <v>75</v>
+      </c>
+      <c r="D95">
+        <v>4</v>
+      </c>
+      <c r="E95">
+        <v>81</v>
+      </c>
+      <c r="F95">
+        <v>211500</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>9</v>
+      </c>
+      <c r="K95">
+        <v>75</v>
+      </c>
+      <c r="L95" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M95" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N95" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>5320</v>
+      </c>
+      <c r="B96">
+        <v>8</v>
+      </c>
+      <c r="C96">
+        <v>75</v>
+      </c>
+      <c r="D96">
+        <v>2</v>
+      </c>
+      <c r="E96">
+        <v>85</v>
+      </c>
+      <c r="F96">
+        <v>324900</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>9</v>
+      </c>
+      <c r="K96">
+        <v>75</v>
+      </c>
+      <c r="L96" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M96" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N96" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>5321</v>
+      </c>
+      <c r="B97">
+        <v>8</v>
+      </c>
+      <c r="C97">
+        <v>75</v>
+      </c>
+      <c r="D97">
+        <v>10</v>
+      </c>
+      <c r="E97">
+        <v>82</v>
+      </c>
+      <c r="F97">
+        <v>263100</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>9</v>
+      </c>
+      <c r="K97">
+        <v>75</v>
+      </c>
+      <c r="L97" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M97" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N97" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>5322</v>
+      </c>
+      <c r="B98">
+        <v>8</v>
+      </c>
+      <c r="C98">
+        <v>75</v>
+      </c>
+      <c r="D98">
+        <v>4</v>
+      </c>
+      <c r="E98">
+        <v>83</v>
+      </c>
+      <c r="F98">
+        <v>299200</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>9</v>
+      </c>
+      <c r="K98">
+        <v>75</v>
+      </c>
+      <c r="L98" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M98" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N98" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>5323</v>
+      </c>
+      <c r="B99">
+        <v>8</v>
+      </c>
+      <c r="C99">
+        <v>75</v>
+      </c>
+      <c r="D99">
+        <v>8</v>
+      </c>
+      <c r="E99">
+        <v>82</v>
+      </c>
+      <c r="F99">
+        <v>267600</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>9</v>
+      </c>
+      <c r="K99">
+        <v>75</v>
+      </c>
+      <c r="L99" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M99" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N99" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>5324</v>
+      </c>
+      <c r="B100">
+        <v>8</v>
+      </c>
+      <c r="C100">
+        <v>75</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>9</v>
+      </c>
+      <c r="K100">
+        <v>75</v>
+      </c>
+      <c r="L100" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M100" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N100" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>5325</v>
+      </c>
+      <c r="B101">
+        <v>8</v>
+      </c>
+      <c r="C101">
+        <v>75</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101">
+        <v>82</v>
+      </c>
+      <c r="F101">
+        <v>270600</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>9</v>
+      </c>
+      <c r="K101">
+        <v>75</v>
+      </c>
+      <c r="L101" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M101" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N101" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>5326</v>
+      </c>
+      <c r="B102">
+        <v>8</v>
+      </c>
+      <c r="C102">
+        <v>75</v>
+      </c>
+      <c r="D102">
+        <v>3</v>
+      </c>
+      <c r="E102">
+        <v>82</v>
+      </c>
+      <c r="F102">
+        <v>264100</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>9</v>
+      </c>
+      <c r="K102">
+        <v>75</v>
+      </c>
+      <c r="L102" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M102" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N102" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>5327</v>
+      </c>
+      <c r="B103">
+        <v>9</v>
+      </c>
+      <c r="C103">
+        <v>75</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>9</v>
+      </c>
+      <c r="K103">
+        <v>75</v>
+      </c>
+      <c r="L103" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M103" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N103" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>5328</v>
+      </c>
+      <c r="B104">
+        <v>8</v>
+      </c>
+      <c r="C104">
+        <v>75</v>
+      </c>
+      <c r="D104">
+        <v>2</v>
+      </c>
+      <c r="E104">
+        <v>83</v>
+      </c>
+      <c r="F104">
+        <v>281500</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>9</v>
+      </c>
+      <c r="K104">
+        <v>75</v>
+      </c>
+      <c r="L104" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M104" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N104" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>5329</v>
+      </c>
+      <c r="B105">
+        <v>8</v>
+      </c>
+      <c r="C105">
+        <v>75</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+      <c r="E105">
+        <v>82</v>
+      </c>
+      <c r="F105">
+        <v>257400</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>9</v>
+      </c>
+      <c r="K105">
+        <v>75</v>
+      </c>
+      <c r="L105" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M105" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N105" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>5330</v>
+      </c>
+      <c r="B106">
+        <v>8</v>
+      </c>
+      <c r="C106">
+        <v>75</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>9</v>
+      </c>
+      <c r="K106">
+        <v>75</v>
+      </c>
+      <c r="L106" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M106" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N106" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>5331</v>
+      </c>
+      <c r="B107">
+        <v>8</v>
+      </c>
+      <c r="C107">
+        <v>75</v>
+      </c>
+      <c r="D107">
+        <v>2</v>
+      </c>
+      <c r="E107">
+        <v>84</v>
+      </c>
+      <c r="F107">
+        <v>333800</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>9</v>
+      </c>
+      <c r="K107">
+        <v>75</v>
+      </c>
+      <c r="L107" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M107" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N107" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>5332</v>
+      </c>
+      <c r="B108">
+        <v>8</v>
+      </c>
+      <c r="C108">
+        <v>75</v>
+      </c>
+      <c r="D108">
+        <v>6</v>
+      </c>
+      <c r="E108">
+        <v>79</v>
+      </c>
+      <c r="F108">
+        <v>177500</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>9</v>
+      </c>
+      <c r="K108">
+        <v>75</v>
+      </c>
+      <c r="L108" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M108" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N108" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>5333</v>
+      </c>
+      <c r="B109">
+        <v>8</v>
+      </c>
+      <c r="C109">
+        <v>75</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>9</v>
+      </c>
+      <c r="K109">
+        <v>75</v>
+      </c>
+      <c r="L109" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M109" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N109" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>5275</v>
+      </c>
+      <c r="B110">
+        <v>10</v>
+      </c>
+      <c r="C110">
+        <v>74</v>
+      </c>
+      <c r="D110">
+        <v>9</v>
+      </c>
+      <c r="E110">
+        <v>82</v>
+      </c>
+      <c r="F110">
+        <v>234800</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>12</v>
+      </c>
+      <c r="K110">
+        <v>74</v>
+      </c>
+      <c r="L110" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M110" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N110" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>5276</v>
+      </c>
+      <c r="B111">
+        <v>11</v>
+      </c>
+      <c r="C111">
+        <v>74</v>
+      </c>
+      <c r="D111">
+        <v>5</v>
+      </c>
+      <c r="E111">
+        <v>85</v>
+      </c>
+      <c r="F111">
+        <v>322500</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>12</v>
+      </c>
+      <c r="K111">
+        <v>74</v>
+      </c>
+      <c r="L111" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M111" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N111" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>5277</v>
+      </c>
+      <c r="B112">
+        <v>8</v>
+      </c>
+      <c r="C112">
+        <v>74</v>
+      </c>
+      <c r="D112">
+        <v>1</v>
+      </c>
+      <c r="E112">
+        <v>82</v>
+      </c>
+      <c r="F112">
+        <v>224400</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>12</v>
+      </c>
+      <c r="K112">
+        <v>74</v>
+      </c>
+      <c r="L112" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M112" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N112" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>5278</v>
+      </c>
+      <c r="B113">
+        <v>10</v>
+      </c>
+      <c r="C113">
+        <v>74</v>
+      </c>
+      <c r="D113">
+        <v>5</v>
+      </c>
+      <c r="E113">
+        <v>81</v>
+      </c>
+      <c r="F113">
+        <v>250600</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>12</v>
+      </c>
+      <c r="K113">
+        <v>74</v>
+      </c>
+      <c r="L113" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M113" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N113" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>5279</v>
+      </c>
+      <c r="B114">
+        <v>10</v>
+      </c>
+      <c r="C114">
+        <v>74</v>
+      </c>
+      <c r="D114">
+        <v>4</v>
+      </c>
+      <c r="E114">
+        <v>77</v>
+      </c>
+      <c r="F114">
+        <v>118000</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>12</v>
+      </c>
+      <c r="K114">
+        <v>74</v>
+      </c>
+      <c r="L114" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M114" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N114" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>5280</v>
+      </c>
+      <c r="B115">
+        <v>8</v>
+      </c>
+      <c r="C115">
+        <v>74</v>
+      </c>
+      <c r="D115">
+        <v>12</v>
+      </c>
+      <c r="E115">
+        <v>84</v>
+      </c>
+      <c r="F115">
+        <v>306300</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>12</v>
+      </c>
+      <c r="K115">
+        <v>74</v>
+      </c>
+      <c r="L115" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M115" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N115" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>5281</v>
+      </c>
+      <c r="B116">
+        <v>8</v>
+      </c>
+      <c r="C116">
+        <v>74</v>
+      </c>
+      <c r="D116">
+        <v>3</v>
+      </c>
+      <c r="E116">
+        <v>78</v>
+      </c>
+      <c r="F116">
+        <v>174400</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>12</v>
+      </c>
+      <c r="K116">
+        <v>74</v>
+      </c>
+      <c r="L116" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M116" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N116" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>5282</v>
+      </c>
+      <c r="B117">
+        <v>8</v>
+      </c>
+      <c r="C117">
+        <v>74</v>
+      </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
+      <c r="E117">
+        <v>81</v>
+      </c>
+      <c r="F117">
+        <v>241200</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>12</v>
+      </c>
+      <c r="K117">
+        <v>74</v>
+      </c>
+      <c r="L117" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M117" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N117" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>5283</v>
+      </c>
+      <c r="B118">
+        <v>8</v>
+      </c>
+      <c r="C118">
+        <v>74</v>
+      </c>
+      <c r="D118">
+        <v>8</v>
+      </c>
+      <c r="E118">
+        <v>83</v>
+      </c>
+      <c r="F118">
+        <v>312700</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>12</v>
+      </c>
+      <c r="K118">
+        <v>74</v>
+      </c>
+      <c r="L118" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M118" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N118" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>5284</v>
+      </c>
+      <c r="B119">
+        <v>8</v>
+      </c>
+      <c r="C119">
+        <v>74</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>12</v>
+      </c>
+      <c r="K119">
+        <v>74</v>
+      </c>
+      <c r="L119" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M119" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N119" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>5285</v>
+      </c>
+      <c r="B120">
+        <v>11</v>
+      </c>
+      <c r="C120">
+        <v>74</v>
+      </c>
+      <c r="D120">
+        <v>9</v>
+      </c>
+      <c r="E120">
+        <v>81</v>
+      </c>
+      <c r="F120">
+        <v>255100</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>12</v>
+      </c>
+      <c r="K120">
+        <v>74</v>
+      </c>
+      <c r="L120" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M120" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N120" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>5286</v>
+      </c>
+      <c r="B121">
+        <v>8</v>
+      </c>
+      <c r="C121">
+        <v>74</v>
+      </c>
+      <c r="D121">
+        <v>11</v>
+      </c>
+      <c r="E121">
+        <v>80</v>
+      </c>
+      <c r="F121">
+        <v>258200</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>12</v>
+      </c>
+      <c r="K121">
+        <v>74</v>
+      </c>
+      <c r="L121" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M121" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N121" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>4287</v>
+      </c>
+      <c r="B122">
+        <v>10</v>
+      </c>
+      <c r="C122">
+        <v>74</v>
+      </c>
+      <c r="D122">
+        <v>11</v>
+      </c>
+      <c r="E122">
+        <v>84</v>
+      </c>
+      <c r="F122">
+        <v>224000</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>12</v>
+      </c>
+      <c r="K122">
+        <v>74</v>
+      </c>
+      <c r="L122" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M122" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N122" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>4288</v>
+      </c>
+      <c r="B123">
+        <v>10</v>
+      </c>
+      <c r="C123">
+        <v>74</v>
+      </c>
+      <c r="D123">
+        <v>10</v>
+      </c>
+      <c r="E123">
+        <v>78</v>
+      </c>
+      <c r="F123">
+        <v>82400</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>12</v>
+      </c>
+      <c r="K123">
+        <v>74</v>
+      </c>
+      <c r="L123" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M123" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N123" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>4289</v>
+      </c>
+      <c r="B124">
+        <v>8</v>
+      </c>
+      <c r="C124">
+        <v>74</v>
+      </c>
+      <c r="D124">
+        <v>2</v>
+      </c>
+      <c r="E124">
+        <v>85</v>
+      </c>
+      <c r="F124">
+        <v>237200</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>12</v>
+      </c>
+      <c r="K124">
+        <v>74</v>
+      </c>
+      <c r="L124" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M124" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N124" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>4290</v>
+      </c>
+      <c r="B125">
+        <v>8</v>
+      </c>
+      <c r="C125">
+        <v>74</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <v>12</v>
+      </c>
+      <c r="K125">
+        <v>74</v>
+      </c>
+      <c r="L125" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M125" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N125" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>4291</v>
+      </c>
+      <c r="B126">
+        <v>10</v>
+      </c>
+      <c r="C126">
+        <v>74</v>
+      </c>
+      <c r="D126">
+        <v>10</v>
+      </c>
+      <c r="E126">
+        <v>78</v>
+      </c>
+      <c r="F126">
+        <v>106400</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>12</v>
+      </c>
+      <c r="K126">
+        <v>74</v>
+      </c>
+      <c r="L126" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M126" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N126" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>4292</v>
+      </c>
+      <c r="B127">
+        <v>8</v>
+      </c>
+      <c r="C127">
+        <v>74</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+      <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>12</v>
+      </c>
+      <c r="K127">
+        <v>74</v>
+      </c>
+      <c r="L127" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M127" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N127" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>4293</v>
+      </c>
+      <c r="B128">
+        <v>8</v>
+      </c>
+      <c r="C128">
+        <v>74</v>
+      </c>
+      <c r="D128">
+        <v>9</v>
+      </c>
+      <c r="E128">
+        <v>80</v>
+      </c>
+      <c r="F128">
+        <v>171500</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="H128">
+        <v>0</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>12</v>
+      </c>
+      <c r="K128">
+        <v>74</v>
+      </c>
+      <c r="L128" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M128" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N128" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>4294</v>
+      </c>
+      <c r="B129">
+        <v>10</v>
+      </c>
+      <c r="C129">
+        <v>74</v>
+      </c>
+      <c r="D129">
+        <v>2</v>
+      </c>
+      <c r="E129">
+        <v>79</v>
+      </c>
+      <c r="F129">
+        <v>125500</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>12</v>
+      </c>
+      <c r="K129">
+        <v>74</v>
+      </c>
+      <c r="L129" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M129" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N129" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>4295</v>
+      </c>
+      <c r="B130">
+        <v>10</v>
+      </c>
+      <c r="C130">
+        <v>74</v>
+      </c>
+      <c r="D130">
+        <v>10</v>
+      </c>
+      <c r="E130">
+        <v>78</v>
+      </c>
+      <c r="F130">
+        <v>108500</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <v>12</v>
+      </c>
+      <c r="K130">
+        <v>74</v>
+      </c>
+      <c r="L130" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M130" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N130" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>4296</v>
+      </c>
+      <c r="B131">
+        <v>10</v>
+      </c>
+      <c r="C131">
+        <v>74</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>12</v>
+      </c>
+      <c r="K131">
+        <v>74</v>
+      </c>
+      <c r="L131" t="b">
+        <f t="shared" ref="L131:L167" si="6">D131&gt;0</f>
+        <v>0</v>
+      </c>
+      <c r="M131" t="b">
+        <f t="shared" ref="M131:M167" si="7">G131&gt;0</f>
+        <v>0</v>
+      </c>
+      <c r="N131" t="b">
+        <f t="shared" ref="N131:N167" si="8">OR(L131,M131)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>5257</v>
+      </c>
+      <c r="B132">
+        <v>5</v>
+      </c>
+      <c r="C132">
+        <v>72</v>
+      </c>
+      <c r="D132">
+        <v>6</v>
+      </c>
+      <c r="E132">
+        <v>79</v>
+      </c>
+      <c r="F132">
+        <v>242400</v>
+      </c>
+      <c r="G132">
+        <v>8</v>
+      </c>
+      <c r="H132">
+        <v>84</v>
+      </c>
+      <c r="I132">
+        <v>384900</v>
+      </c>
+      <c r="J132">
+        <v>12</v>
+      </c>
+      <c r="K132">
+        <v>74</v>
+      </c>
+      <c r="L132" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M132" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N132" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>5258</v>
+      </c>
+      <c r="B133">
+        <v>5</v>
+      </c>
+      <c r="C133">
+        <v>72</v>
+      </c>
+      <c r="D133">
+        <v>2</v>
+      </c>
+      <c r="E133">
+        <v>76</v>
+      </c>
+      <c r="F133">
+        <v>170800</v>
+      </c>
+      <c r="G133">
+        <v>2</v>
+      </c>
+      <c r="H133">
+        <v>84</v>
+      </c>
+      <c r="I133">
+        <v>391500</v>
+      </c>
+      <c r="J133">
+        <v>12</v>
+      </c>
+      <c r="K133">
+        <v>74</v>
+      </c>
+      <c r="L133" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M133" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N133" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>5259</v>
+      </c>
+      <c r="B134">
+        <v>5</v>
+      </c>
+      <c r="C134">
+        <v>72</v>
+      </c>
+      <c r="D134">
+        <v>6</v>
+      </c>
+      <c r="E134">
+        <v>77</v>
+      </c>
+      <c r="F134">
+        <v>202400</v>
+      </c>
+      <c r="G134">
+        <v>7</v>
+      </c>
+      <c r="H134">
+        <v>83</v>
+      </c>
+      <c r="I134">
+        <v>364300</v>
+      </c>
+      <c r="J134">
+        <v>12</v>
+      </c>
+      <c r="K134">
+        <v>74</v>
+      </c>
+      <c r="L134" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M134" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N134" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>5260</v>
+      </c>
+      <c r="B135">
+        <v>5</v>
+      </c>
+      <c r="C135">
+        <v>72</v>
+      </c>
+      <c r="D135">
+        <v>1</v>
+      </c>
+      <c r="E135">
+        <v>77</v>
+      </c>
+      <c r="F135">
+        <v>189000</v>
+      </c>
+      <c r="G135">
+        <v>9</v>
+      </c>
+      <c r="H135">
+        <v>82</v>
+      </c>
+      <c r="I135">
+        <v>361600</v>
+      </c>
+      <c r="J135">
+        <v>12</v>
+      </c>
+      <c r="K135">
+        <v>74</v>
+      </c>
+      <c r="L135" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M135" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N135" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>5261</v>
+      </c>
+      <c r="B136">
+        <v>5</v>
+      </c>
+      <c r="C136">
+        <v>72</v>
+      </c>
+      <c r="D136">
+        <v>3</v>
+      </c>
+      <c r="E136">
+        <v>77</v>
+      </c>
+      <c r="F136">
+        <v>212100</v>
+      </c>
+      <c r="G136">
+        <v>11</v>
+      </c>
+      <c r="H136">
+        <v>84</v>
+      </c>
+      <c r="I136">
+        <v>407300</v>
+      </c>
+      <c r="J136">
+        <v>12</v>
+      </c>
+      <c r="K136">
+        <v>74</v>
+      </c>
+      <c r="L136" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M136" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N136" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>5262</v>
+      </c>
+      <c r="B137">
+        <v>5</v>
+      </c>
+      <c r="C137">
+        <v>72</v>
+      </c>
+      <c r="D137">
+        <v>5</v>
+      </c>
+      <c r="E137">
+        <v>78</v>
+      </c>
+      <c r="F137">
+        <v>241100</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+      <c r="H137">
+        <v>0</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>12</v>
+      </c>
+      <c r="K137">
+        <v>74</v>
+      </c>
+      <c r="L137" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M137" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N137" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>5263</v>
+      </c>
+      <c r="B138">
+        <v>5</v>
+      </c>
+      <c r="C138">
+        <v>72</v>
+      </c>
+      <c r="D138">
+        <v>9</v>
+      </c>
+      <c r="E138">
+        <v>75</v>
+      </c>
+      <c r="F138">
+        <v>184700</v>
+      </c>
+      <c r="G138">
+        <v>4</v>
+      </c>
+      <c r="H138">
+        <v>84</v>
+      </c>
+      <c r="I138">
+        <v>334600</v>
+      </c>
+      <c r="J138">
+        <v>12</v>
+      </c>
+      <c r="K138">
+        <v>74</v>
+      </c>
+      <c r="L138" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M138" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N138" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>5264</v>
+      </c>
+      <c r="B139">
+        <v>5</v>
+      </c>
+      <c r="C139">
+        <v>72</v>
+      </c>
+      <c r="D139">
+        <v>9</v>
+      </c>
+      <c r="E139">
+        <v>76</v>
+      </c>
+      <c r="F139">
+        <v>204000</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="H139">
+        <v>0</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>12</v>
+      </c>
+      <c r="K139">
+        <v>74</v>
+      </c>
+      <c r="L139" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M139" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N139" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>5265</v>
+      </c>
+      <c r="B140">
+        <v>5</v>
+      </c>
+      <c r="C140">
+        <v>72</v>
+      </c>
+      <c r="D140">
+        <v>4</v>
+      </c>
+      <c r="E140">
+        <v>77</v>
+      </c>
+      <c r="F140">
+        <v>219600</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+      <c r="H140">
+        <v>0</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>12</v>
+      </c>
+      <c r="K140">
+        <v>74</v>
+      </c>
+      <c r="L140" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M140" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N140" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>5266</v>
+      </c>
+      <c r="B141">
+        <v>5</v>
+      </c>
+      <c r="C141">
+        <v>72</v>
+      </c>
+      <c r="D141">
+        <v>4</v>
+      </c>
+      <c r="E141">
+        <v>77</v>
+      </c>
+      <c r="F141">
+        <v>212700</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
+      <c r="H141">
+        <v>0</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <v>12</v>
+      </c>
+      <c r="K141">
+        <v>74</v>
+      </c>
+      <c r="L141" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M141" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N141" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>5267</v>
+      </c>
+      <c r="B142">
+        <v>5</v>
+      </c>
+      <c r="C142">
+        <v>72</v>
+      </c>
+      <c r="D142">
+        <v>5</v>
+      </c>
+      <c r="E142">
+        <v>77</v>
+      </c>
+      <c r="F142">
+        <v>233300</v>
+      </c>
+      <c r="G142">
+        <v>0</v>
+      </c>
+      <c r="H142">
+        <v>0</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>12</v>
+      </c>
+      <c r="K142">
+        <v>74</v>
+      </c>
+      <c r="L142" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M142" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N142" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>5268</v>
+      </c>
+      <c r="B143">
+        <v>5</v>
+      </c>
+      <c r="C143">
+        <v>72</v>
+      </c>
+      <c r="D143">
+        <v>4</v>
+      </c>
+      <c r="E143">
+        <v>76</v>
+      </c>
+      <c r="F143">
+        <v>215300</v>
+      </c>
+      <c r="G143">
+        <v>5</v>
+      </c>
+      <c r="H143">
+        <v>82</v>
+      </c>
+      <c r="I143">
+        <v>340100</v>
+      </c>
+      <c r="J143">
+        <v>12</v>
+      </c>
+      <c r="K143">
+        <v>74</v>
+      </c>
+      <c r="L143" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M143" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N143" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>5269</v>
+      </c>
+      <c r="B144">
+        <v>5</v>
+      </c>
+      <c r="C144">
+        <v>72</v>
+      </c>
+      <c r="D144">
+        <v>9</v>
+      </c>
+      <c r="E144">
+        <v>77</v>
+      </c>
+      <c r="F144">
+        <v>281000</v>
+      </c>
+      <c r="G144">
+        <v>0</v>
+      </c>
+      <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>12</v>
+      </c>
+      <c r="K144">
+        <v>74</v>
+      </c>
+      <c r="L144" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M144" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N144" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>5270</v>
+      </c>
+      <c r="B145">
+        <v>5</v>
+      </c>
+      <c r="C145">
+        <v>72</v>
+      </c>
+      <c r="D145">
+        <v>2</v>
+      </c>
+      <c r="E145">
+        <v>78</v>
+      </c>
+      <c r="F145">
+        <v>265000</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
+      </c>
+      <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>12</v>
+      </c>
+      <c r="K145">
+        <v>74</v>
+      </c>
+      <c r="L145" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M145" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N145" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>5271</v>
+      </c>
+      <c r="B146">
+        <v>5</v>
+      </c>
+      <c r="C146">
+        <v>72</v>
+      </c>
+      <c r="D146">
+        <v>4</v>
+      </c>
+      <c r="E146">
+        <v>79</v>
+      </c>
+      <c r="F146">
+        <v>331800</v>
+      </c>
+      <c r="G146">
+        <v>0</v>
+      </c>
+      <c r="H146">
+        <v>0</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>12</v>
+      </c>
+      <c r="K146">
+        <v>74</v>
+      </c>
+      <c r="L146" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M146" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N146" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>5272</v>
+      </c>
+      <c r="B147">
+        <v>5</v>
+      </c>
+      <c r="C147">
+        <v>72</v>
+      </c>
+      <c r="D147">
+        <v>10</v>
+      </c>
+      <c r="E147">
+        <v>75</v>
+      </c>
+      <c r="F147">
+        <v>205400</v>
+      </c>
+      <c r="G147">
+        <v>12</v>
+      </c>
+      <c r="H147">
+        <v>83</v>
+      </c>
+      <c r="I147">
+        <v>413100</v>
+      </c>
+      <c r="J147">
+        <v>12</v>
+      </c>
+      <c r="K147">
+        <v>74</v>
+      </c>
+      <c r="L147" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M147" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N147" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>5273</v>
+      </c>
+      <c r="B148">
+        <v>5</v>
+      </c>
+      <c r="C148">
+        <v>72</v>
+      </c>
+      <c r="D148">
+        <v>9</v>
+      </c>
+      <c r="E148">
+        <v>77</v>
+      </c>
+      <c r="F148">
+        <v>262200</v>
+      </c>
+      <c r="G148">
+        <v>4</v>
+      </c>
+      <c r="H148">
+        <v>83</v>
+      </c>
+      <c r="I148">
+        <v>383200</v>
+      </c>
+      <c r="J148">
+        <v>12</v>
+      </c>
+      <c r="K148">
+        <v>74</v>
+      </c>
+      <c r="L148" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M148" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N148" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>5274</v>
+      </c>
+      <c r="B149">
+        <v>5</v>
+      </c>
+      <c r="C149">
+        <v>72</v>
+      </c>
+      <c r="D149">
+        <v>3</v>
+      </c>
+      <c r="E149">
+        <v>78</v>
+      </c>
+      <c r="F149">
+        <v>272900</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
+      <c r="H149">
+        <v>0</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>12</v>
+      </c>
+      <c r="K149">
+        <v>74</v>
+      </c>
+      <c r="L149" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M149" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N149" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>4239</v>
+      </c>
+      <c r="B150">
+        <v>2</v>
+      </c>
+      <c r="C150">
+        <v>72</v>
+      </c>
+      <c r="D150">
+        <v>1</v>
+      </c>
+      <c r="E150">
+        <v>76</v>
+      </c>
+      <c r="F150">
+        <v>166100</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
+      <c r="H150">
+        <v>0</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <v>12</v>
+      </c>
+      <c r="K150">
+        <v>74</v>
+      </c>
+      <c r="L150" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M150" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N150" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>4240</v>
+      </c>
+      <c r="B151">
+        <v>2</v>
+      </c>
+      <c r="C151">
+        <v>72</v>
+      </c>
+      <c r="D151">
+        <v>1</v>
+      </c>
+      <c r="E151">
+        <v>75</v>
+      </c>
+      <c r="F151">
+        <v>177900</v>
+      </c>
+      <c r="G151">
+        <v>0</v>
+      </c>
+      <c r="H151">
+        <v>0</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <v>12</v>
+      </c>
+      <c r="K151">
+        <v>74</v>
+      </c>
+      <c r="L151" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M151" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N151" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>4241</v>
+      </c>
+      <c r="B152">
+        <v>2</v>
+      </c>
+      <c r="C152">
+        <v>72</v>
+      </c>
+      <c r="D152">
+        <v>5</v>
+      </c>
+      <c r="E152">
+        <v>75</v>
+      </c>
+      <c r="F152">
+        <v>171300</v>
+      </c>
+      <c r="G152">
+        <v>0</v>
+      </c>
+      <c r="H152">
+        <v>0</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <v>12</v>
+      </c>
+      <c r="K152">
+        <v>74</v>
+      </c>
+      <c r="L152" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M152" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N152" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>4242</v>
+      </c>
+      <c r="B153">
+        <v>2</v>
+      </c>
+      <c r="C153">
+        <v>72</v>
+      </c>
+      <c r="D153">
+        <v>2</v>
+      </c>
+      <c r="E153">
+        <v>76</v>
+      </c>
+      <c r="F153">
+        <v>185700</v>
+      </c>
+      <c r="G153">
+        <v>0</v>
+      </c>
+      <c r="H153">
+        <v>0</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <v>12</v>
+      </c>
+      <c r="K153">
+        <v>74</v>
+      </c>
+      <c r="L153" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M153" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N153" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>4243</v>
+      </c>
+      <c r="B154">
+        <v>2</v>
+      </c>
+      <c r="C154">
+        <v>72</v>
+      </c>
+      <c r="D154">
+        <v>4</v>
+      </c>
+      <c r="E154">
+        <v>76</v>
+      </c>
+      <c r="F154">
+        <v>186100</v>
+      </c>
+      <c r="G154">
+        <v>0</v>
+      </c>
+      <c r="H154">
+        <v>0</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154">
+        <v>12</v>
+      </c>
+      <c r="K154">
+        <v>74</v>
+      </c>
+      <c r="L154" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M154" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N154" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>4244</v>
+      </c>
+      <c r="B155">
+        <v>2</v>
+      </c>
+      <c r="C155">
+        <v>72</v>
+      </c>
+      <c r="D155">
+        <v>3</v>
+      </c>
+      <c r="E155">
+        <v>78</v>
+      </c>
+      <c r="F155">
+        <v>217000</v>
+      </c>
+      <c r="G155">
+        <v>0</v>
+      </c>
+      <c r="H155">
+        <v>0</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155">
+        <v>12</v>
+      </c>
+      <c r="K155">
+        <v>74</v>
+      </c>
+      <c r="L155" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M155" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N155" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>4245</v>
+      </c>
+      <c r="B156">
+        <v>2</v>
+      </c>
+      <c r="C156">
+        <v>72</v>
+      </c>
+      <c r="D156">
+        <v>1</v>
+      </c>
+      <c r="E156">
+        <v>75</v>
+      </c>
+      <c r="F156">
+        <v>184400</v>
+      </c>
+      <c r="G156">
+        <v>0</v>
+      </c>
+      <c r="H156">
+        <v>0</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156">
+        <v>12</v>
+      </c>
+      <c r="K156">
+        <v>74</v>
+      </c>
+      <c r="L156" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M156" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N156" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>4246</v>
+      </c>
+      <c r="B157">
+        <v>2</v>
+      </c>
+      <c r="C157">
+        <v>72</v>
+      </c>
+      <c r="D157">
+        <v>3</v>
+      </c>
+      <c r="E157">
+        <v>75</v>
+      </c>
+      <c r="F157">
+        <v>134400</v>
+      </c>
+      <c r="G157">
+        <v>0</v>
+      </c>
+      <c r="H157">
+        <v>0</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157">
+        <v>12</v>
+      </c>
+      <c r="K157">
+        <v>74</v>
+      </c>
+      <c r="L157" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M157" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N157" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>4247</v>
+      </c>
+      <c r="B158">
+        <v>2</v>
+      </c>
+      <c r="C158">
+        <v>72</v>
+      </c>
+      <c r="D158">
+        <v>9</v>
+      </c>
+      <c r="E158">
+        <v>80</v>
+      </c>
+      <c r="F158">
+        <v>257600</v>
+      </c>
+      <c r="G158">
+        <v>0</v>
+      </c>
+      <c r="H158">
+        <v>0</v>
+      </c>
+      <c r="I158">
+        <v>0</v>
+      </c>
+      <c r="J158">
+        <v>12</v>
+      </c>
+      <c r="K158">
+        <v>74</v>
+      </c>
+      <c r="L158" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M158" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N158" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>4248</v>
+      </c>
+      <c r="B159">
+        <v>2</v>
+      </c>
+      <c r="C159">
+        <v>72</v>
+      </c>
+      <c r="D159">
+        <v>2</v>
+      </c>
+      <c r="E159">
+        <v>75</v>
+      </c>
+      <c r="F159">
+        <v>159700</v>
+      </c>
+      <c r="G159">
+        <v>0</v>
+      </c>
+      <c r="H159">
+        <v>0</v>
+      </c>
+      <c r="I159">
+        <v>0</v>
+      </c>
+      <c r="J159">
+        <v>12</v>
+      </c>
+      <c r="K159">
+        <v>74</v>
+      </c>
+      <c r="L159" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M159" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N159" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>4249</v>
+      </c>
+      <c r="B160">
+        <v>2</v>
+      </c>
+      <c r="C160">
+        <v>72</v>
+      </c>
+      <c r="D160">
+        <v>7</v>
+      </c>
+      <c r="E160">
+        <v>75</v>
+      </c>
+      <c r="F160">
+        <v>182100</v>
+      </c>
+      <c r="G160">
+        <v>0</v>
+      </c>
+      <c r="H160">
+        <v>0</v>
+      </c>
+      <c r="I160">
+        <v>0</v>
+      </c>
+      <c r="J160">
+        <v>12</v>
+      </c>
+      <c r="K160">
+        <v>74</v>
+      </c>
+      <c r="L160" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M160" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N160" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>4250</v>
+      </c>
+      <c r="B161">
+        <v>2</v>
+      </c>
+      <c r="C161">
+        <v>72</v>
+      </c>
+      <c r="D161">
+        <v>4</v>
+      </c>
+      <c r="E161">
+        <v>80</v>
+      </c>
+      <c r="F161">
+        <v>261500</v>
+      </c>
+      <c r="G161">
+        <v>0</v>
+      </c>
+      <c r="H161">
+        <v>0</v>
+      </c>
+      <c r="I161">
+        <v>0</v>
+      </c>
+      <c r="J161">
+        <v>12</v>
+      </c>
+      <c r="K161">
+        <v>74</v>
+      </c>
+      <c r="L161" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M161" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N161" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>4251</v>
+      </c>
+      <c r="B162">
+        <v>2</v>
+      </c>
+      <c r="C162">
+        <v>72</v>
+      </c>
+      <c r="D162">
+        <v>1</v>
+      </c>
+      <c r="E162">
+        <v>79</v>
+      </c>
+      <c r="F162">
+        <v>297500</v>
+      </c>
+      <c r="G162">
+        <v>0</v>
+      </c>
+      <c r="H162">
+        <v>0</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <v>12</v>
+      </c>
+      <c r="K162">
+        <v>74</v>
+      </c>
+      <c r="L162" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M162" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N162" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>4252</v>
+      </c>
+      <c r="B163">
+        <v>2</v>
+      </c>
+      <c r="C163">
+        <v>72</v>
+      </c>
+      <c r="D163">
+        <v>5</v>
+      </c>
+      <c r="E163">
+        <v>76</v>
+      </c>
+      <c r="F163">
+        <v>190700</v>
+      </c>
+      <c r="G163">
+        <v>0</v>
+      </c>
+      <c r="H163">
+        <v>0</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163">
+        <v>12</v>
+      </c>
+      <c r="K163">
+        <v>74</v>
+      </c>
+      <c r="L163" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M163" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N163" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>4253</v>
+      </c>
+      <c r="B164">
+        <v>2</v>
+      </c>
+      <c r="C164">
+        <v>72</v>
+      </c>
+      <c r="D164">
+        <v>1</v>
+      </c>
+      <c r="E164">
+        <v>77</v>
+      </c>
+      <c r="F164">
+        <v>151500</v>
+      </c>
+      <c r="G164">
+        <v>9</v>
+      </c>
+      <c r="H164">
+        <v>84</v>
+      </c>
+      <c r="I164">
+        <v>334400</v>
+      </c>
+      <c r="J164">
+        <v>12</v>
+      </c>
+      <c r="K164">
+        <v>74</v>
+      </c>
+      <c r="L164" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M164" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N164" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>4254</v>
+      </c>
+      <c r="B165">
+        <v>2</v>
+      </c>
+      <c r="C165">
+        <v>72</v>
+      </c>
+      <c r="D165">
+        <v>3</v>
+      </c>
+      <c r="E165">
+        <v>76</v>
+      </c>
+      <c r="F165">
+        <v>168400</v>
+      </c>
+      <c r="G165">
+        <v>0</v>
+      </c>
+      <c r="H165">
+        <v>0</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+      <c r="J165">
+        <v>12</v>
+      </c>
+      <c r="K165">
+        <v>74</v>
+      </c>
+      <c r="L165" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M165" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N165" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>4255</v>
+      </c>
+      <c r="B166">
+        <v>2</v>
+      </c>
+      <c r="C166">
+        <v>72</v>
+      </c>
+      <c r="D166">
+        <v>1</v>
+      </c>
+      <c r="E166">
+        <v>76</v>
+      </c>
+      <c r="F166">
+        <v>132000</v>
+      </c>
+      <c r="G166">
+        <v>0</v>
+      </c>
+      <c r="H166">
+        <v>0</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166">
+        <v>12</v>
+      </c>
+      <c r="K166">
+        <v>74</v>
+      </c>
+      <c r="L166" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M166" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N166" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>4256</v>
+      </c>
+      <c r="B167">
+        <v>2</v>
+      </c>
+      <c r="C167">
+        <v>72</v>
+      </c>
+      <c r="D167">
+        <v>9</v>
+      </c>
+      <c r="E167">
+        <v>77</v>
+      </c>
+      <c r="F167">
+        <v>140500</v>
+      </c>
+      <c r="G167">
+        <v>0</v>
+      </c>
+      <c r="H167">
+        <v>0</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="J167">
+        <v>12</v>
+      </c>
+      <c r="K167">
+        <v>74</v>
+      </c>
+      <c r="L167" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M167" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N167" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:N167" xr:uid="{522731A9-0CAF-3040-BCE0-5A40232DBD37}">
+    <filterColumn colId="13">
+      <filters>
+        <filter val="TRUE"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2923,7 +10803,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>5</v>
@@ -2973,7 +10853,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>83</v>
@@ -4953,7 +12833,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>7</v>
@@ -4970,7 +12850,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>81</v>
@@ -7572,7 +15452,7 @@
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>8</v>
@@ -7721,7 +15601,7 @@
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>79</v>
@@ -31061,7 +38941,7 @@
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -31177,7 +39057,7 @@
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>75</v>
@@ -56338,7 +64218,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8617657E-E6B7-8043-9282-C66FEEB8E9F4}">
   <dimension ref="A1:M139"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -56716,7 +64596,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>12</v>
@@ -56757,7 +64637,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>74</v>
@@ -62301,7 +70181,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>12</v>
@@ -62336,7 +70216,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>74</v>
@@ -67334,7 +75214,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>12</v>
@@ -67393,7 +75273,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>74</v>
@@ -75439,7 +83319,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>12</v>
@@ -75498,7 +83378,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>74</v>
